--- a/results.xlsx
+++ b/results.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -634,19 +634,339 @@
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Телемаркетинг</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург, просвещения 19,</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>+78123333100, +78002502525, +78007005127, +74954193344, +74955445000, +79052225289, +78123332810, +78126010601, +78122431285, +78124492121доб.5973, +78129362303, +78002009555, +78123133183, +78001001688доб.165, +79818796433, +79317127510, +78002002345, +79775551611, +78123316238, +79681880990, +79650042573, +78007008929, +78003008454, +78005500500, +78001007770, +78002001063, +78129499191, +78126771524, +78126276799, +78126432020доб.3, +79013023502, +79533653559, +78123295050, +78129088255, +79819723296, +74959600555, +78002344460, +78005118857, +78005552007, +79112717130, +78123333102, +78127182408, +78005005381, +79813352534, +79110320925, +78002000000, +78005554735, +78123316263, +79052002125, +78123316263, +79643903849, +78123632332, +78005555550, +79626868578, +78007003737доб.14001, +78005552835, +78005003322, +79110311903, +79111239331, +78005505132, +78123333104, +74954764120, +78126771626, +79215687068, +79217548882, +78005555550, +78129292566, +78123333402, +79219546886, +79817649852, +79052227490, +79219654882, +79119936933, +78002003565, +79118327656, +79215633750, +79817798407, +78007000611, +79211896221, +79006331771, +79811519425, +79111621490, +79967885723, +79219431953, +78124484287, +79111620079, +79062282736, +79117466531, +79117792886, +79219001044, +78126770784, +78125096644, +78124673474, +79218701886, +78005004514, +79643423803, +74952601003, +78129982150, +78124674293, +79990633533, +79522754140, +79300097817, +79934940406, +78129954568, +78005551966, +79110891424, +79112620255, +78002501955, +79118408555, +79112999318, +79990090989, +78003014767, +79992367777, +79811402600, +79934812208, +78126405151доб.265, +79939671053, +78129887840, +79522213131, +78123099669, +78005555696, +78001003390, +78002349999, +78123316263, +78007707999, +74950153150, +79218984201, +78124480550, +79219503329, +79813367109, +78129808891, +78005004553, +79213167000, +79215841457, +78122449074, +79112674589, +78123634761, +79219119252, +78001003390, +78002001063, +79006331771, +78003508116, +78123332801, +79117199020, +78123181693, +79500029214, +78007005700, +78126221725, +78126351734, +79813366378, +78127703333, +79217356097, +79112923771, +78005058282, +79627279727, +79531549292, +78005005570, +79679760785, +79992125393, +78005554356, +74953633500, +78006000001, +79213392187, +79052002125, +78129153446, +79119071830, +79219546886, +79679758445, +79110093422, +78007000611, +79219418295, +79326990862, +78129874424, +78123333090, +78002500052, +78125091268, +79650111170, +78007008822, +78002344899, +78123333402, +79111779840, +78007008822, +78003331281, +79218766652, +79215559857, +79112013050, +74957445555, +79210120069, +79062687471, +79043391113, +74957921536, +79052084343, +78005555550, +78005500500, +78126775950, +78129362303, +79213017471, +74956621500, +78127185533, +79811374724, +78005500500, +78005550496, +78003339898, +78002500520, +79213543280, +79002642828, +79117436400, +78122002182, +79214486264, +78002003565, +79216414174, +79117233220, +79218469085, +79218469085, +79218766652, +78002225050, +74955005550, +78003002619, +78002505757, +79217555222, +78005501632, +79522688902, +78124487090, +74956209191, +78129524902, +78003011131, +79111779840, +79119683980, +78005550496, +74957771148, +78129002603, +79247796867, +78007002662, +79213877707, +78005500500, +78006004264, +79811217092, +79215908521, +79214295545, +79117736294, +78005550496, +78005555550, +78005550496, +79119056631, +78129225545, +79215515175, +79174005047, +79217405986, +79219347859, +79217548882, +78123632332, +79110111466, +79112013050, +78005550496, +78005500500, +79112289680, +78005505858, +79217555222, +79219211237, +78003339898, +79936416057, +79218469085, +79005550055, +79218711182, +78002000000, +79117016087, +79679758445, +78125653351, +79313565366, +79217555222, +78129499191, +79627075626, +78126490039, +79317056064, +78005500500, +78001002424, +78005550496, +79650111170, +79215502516, +78005555550, +78126770821, +79819803300, +79967758784, +79117436400, +78006004264</t>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Телемаркетинг</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 1,</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>+74951987488</t>
+        </is>
+      </c>
+      <c r="Y2" s="3" t="inlineStr">
+        <is>
+          <t>https://filvetclinic.ru/</t>
+        </is>
+      </c>
+      <c r="AF2" s="3" t="inlineStr">
+        <is>
+          <t>#107258-17-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Телемаркетинг</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 1,</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 1</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>+79014684057</t>
+        </is>
+      </c>
+      <c r="AF3" s="3" t="inlineStr">
+        <is>
+          <t>#107258-17-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Телемаркетинг</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 1,</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 1</t>
+        </is>
+      </c>
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t>+79779903057</t>
+        </is>
+      </c>
+      <c r="Y4" s="3" t="inlineStr">
+        <is>
+          <t>https://am-stretching-alymov-pereulok.clients.site/</t>
+        </is>
+      </c>
+      <c r="AF4" s="3" t="inlineStr">
+        <is>
+          <t>#107258-17-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Телемаркетинг</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 1,</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 1</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>+74952321000</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/</t>
+        </is>
+      </c>
+      <c r="AF5" s="3" t="inlineStr">
+        <is>
+          <t>#107258-17-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Телемаркетинг</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 1,</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 1</t>
+        </is>
+      </c>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>+74953350535</t>
+        </is>
+      </c>
+      <c r="AF6" s="3" t="inlineStr">
+        <is>
+          <t>#107258-17-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Телемаркетинг</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 1,</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 1</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
+          <t>+79319622224</t>
+        </is>
+      </c>
+      <c r="Y7" s="3" t="inlineStr">
+        <is>
+          <t>https://www.ostavbagaz.ru/</t>
+        </is>
+      </c>
+      <c r="AF7" s="3" t="inlineStr">
+        <is>
+          <t>#107258-17-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Телемаркетинг</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 2,</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 2</t>
+        </is>
+      </c>
+      <c r="S8" s="3" t="inlineStr">
+        <is>
+          <t>+74991684048</t>
+        </is>
+      </c>
+      <c r="Y8" s="3" t="inlineStr">
+        <is>
+          <t>http://tgizd.ru/</t>
+        </is>
+      </c>
+      <c r="AF8" s="3" t="inlineStr">
+        <is>
+          <t>#107258-17-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Телемаркетинг</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 2,</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 2</t>
+        </is>
+      </c>
+      <c r="S9" s="3" t="inlineStr">
+        <is>
+          <t>+74991682128</t>
+        </is>
+      </c>
+      <c r="Y9" s="3" t="inlineStr">
+        <is>
+          <t>http://tgizd.ru/</t>
+        </is>
+      </c>
+      <c r="AF9" s="3" t="inlineStr">
+        <is>
+          <t>#107258-17-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Телемаркетинг</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 2,</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Алымов переулок, дом 17, корпус 2</t>
+        </is>
+      </c>
+      <c r="S10" s="3" t="inlineStr">
+        <is>
+          <t>+79857603969</t>
+        </is>
+      </c>
+      <c r="Y10" s="3" t="inlineStr">
+        <is>
+          <t>http://skbr.ru/</t>
+        </is>
+      </c>
+      <c r="AF10" s="3" t="inlineStr">
+        <is>
+          <t>#107258-17-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Телемаркетинг</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Глебовская улица, дом 1,</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Глебовская улица, дом 1</t>
+        </is>
+      </c>
+      <c r="S11" s="3" t="inlineStr">
+        <is>
+          <t>+79160147776</t>
+        </is>
+      </c>
+      <c r="AF11" s="3" t="inlineStr">
+        <is>
+          <t>#107258-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Телемаркетинг</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Глебовская улица, дом 1,</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>107258, г.Москва, Глебовская улица, дом 1</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>+74959026899</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>https://pipecity.ru/</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>#107258-1</t>
         </is>
       </c>
     </row>
